--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,15 +496,90 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Move away from sources of interference before attempting flight</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22-30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2. Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31-35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Move away from sources of interference before attempting flight 2.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22-31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>33-35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/42/incorrect_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/42/incorrect_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,90 +496,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Move away from sources of interference before attempting flight</t>
+          <t>Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22-30</t>
+          <t>33-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31-35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight 2.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22-31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>33-35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
